--- a/data/trans_orig/P34D2H-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E68B79-93BA-4D8E-A9B8-25B778D2A023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{220AEE76-E001-4BD1-AAB1-42B781D1F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32306796-002D-4F70-8C22-29B9DAE0BD64}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D49B6040-15F3-4DEF-904A-85A2C19DB7B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,37%</t>
+    <t>5,55%</t>
   </si>
   <si>
     <t>0%</t>
@@ -86,1087 +86,1087 @@
     <t>0,83%</t>
   </si>
   <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>23,68%</t>
   </si>
   <si>
     <t>44,14%</t>
   </si>
   <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7383B3F7-D916-4D4F-B383-61A20A8E8BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC41FAB-95D7-479E-92F1-625B0541C9F3}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2218,10 +2218,10 @@
         <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2230,13 +2230,13 @@
         <v>3887</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2245,13 +2245,13 @@
         <v>15712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2266,13 @@
         <v>136297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -2281,13 +2281,13 @@
         <v>40923</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M15" s="7">
         <v>169</v>
@@ -2296,18 +2296,18 @@
         <v>177220</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2325,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,28 +2370,28 @@
         <v>1022</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2421,13 @@
         <v>3085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2451,13 +2451,13 @@
         <v>3085</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,7 +2478,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>2239</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2553,13 +2553,13 @@
         <v>2239</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2589,13 +2589,13 @@
         <v>898</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2604,13 +2604,13 @@
         <v>2145</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2625,13 @@
         <v>5273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2640,13 +2640,13 @@
         <v>884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2655,13 +2655,13 @@
         <v>6158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2676,13 @@
         <v>9404</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2691,10 +2691,10 @@
         <v>2994</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>99</v>
@@ -2712,7 +2712,7 @@
         <v>101</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2727,13 @@
         <v>40038</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2742,13 +2742,13 @@
         <v>9911</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -2757,13 +2757,13 @@
         <v>49950</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2778,13 @@
         <v>78096</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2793,13 +2793,13 @@
         <v>21443</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>97</v>
@@ -2808,13 +2808,13 @@
         <v>99539</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2829,13 @@
         <v>16371</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2844,13 +2844,13 @@
         <v>6733</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2859,13 +2859,13 @@
         <v>23105</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2880,13 @@
         <v>156776</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H27" s="7">
         <v>44</v>
@@ -2895,13 +2895,13 @@
         <v>42863</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M27" s="7">
         <v>192</v>
@@ -2910,18 +2910,18 @@
         <v>199640</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2939,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,7 +2990,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3035,13 @@
         <v>5777</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3050,13 +3050,13 @@
         <v>2049</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -3065,13 +3065,13 @@
         <v>7826</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3086,13 @@
         <v>1237</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3101,13 +3101,13 @@
         <v>929</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3116,13 +3116,13 @@
         <v>2166</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3137,13 @@
         <v>3427</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3152,13 +3152,13 @@
         <v>1536</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3167,13 +3167,13 @@
         <v>4963</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3218,13 @@
         <v>8028</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3239,13 @@
         <v>3808</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>3808</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3290,13 @@
         <v>4572</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3305,13 +3305,13 @@
         <v>929</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -3320,13 +3320,13 @@
         <v>5501</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3341,13 @@
         <v>25117</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3356,13 +3356,13 @@
         <v>4785</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -3371,13 +3371,13 @@
         <v>29902</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3392,13 @@
         <v>35961</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -3407,13 +3407,13 @@
         <v>24132</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -3422,13 +3422,13 @@
         <v>60093</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3443,13 @@
         <v>5895</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -3458,13 +3458,13 @@
         <v>7604</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -3473,13 +3473,13 @@
         <v>13499</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3494,13 @@
         <v>93822</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H39" s="7">
         <v>42</v>
@@ -3509,13 +3509,13 @@
         <v>41964</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M39" s="7">
         <v>131</v>
@@ -3524,18 +3524,18 @@
         <v>135785</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3553,7 +3553,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3604,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3634,7 +3634,7 @@
         <v>13</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3649,13 @@
         <v>2207</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -3679,13 +3679,13 @@
         <v>2207</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>13</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>13</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3751,13 @@
         <v>1004</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>13</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3781,13 +3781,13 @@
         <v>1004</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3802,13 @@
         <v>1004</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         <v>13</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3832,13 +3832,13 @@
         <v>1004</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3853,13 @@
         <v>961</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3883,13 +3883,13 @@
         <v>961</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,10 +3904,10 @@
         <v>5050</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>215</v>
@@ -3925,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -4108,13 +4108,13 @@
         <v>47620</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H51" s="7">
         <v>18</v>
@@ -4123,13 +4123,13 @@
         <v>18964</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M51" s="7">
         <v>62</v>
@@ -4138,13 +4138,13 @@
         <v>66584</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4293,13 @@
         <v>3253</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4416,13 @@
         <v>1138</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>1138</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
@@ -4518,7 +4518,7 @@
         <v>1000</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
@@ -4548,13 +4548,13 @@
         <v>1000</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4569,13 @@
         <v>6583</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4599,13 +4599,13 @@
         <v>6583</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="Q60" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4620,13 @@
         <v>8894</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -4635,10 +4635,10 @@
         <v>3449</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>272</v>
@@ -4722,13 +4722,13 @@
         <v>30187</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H63" s="7">
         <v>7</v>
@@ -4737,13 +4737,13 @@
         <v>8688</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M63" s="7">
         <v>34</v>
@@ -4752,13 +4752,13 @@
         <v>38875</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,10 +5216,10 @@
         <v>297</v>
       </c>
       <c r="P72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5234,13 @@
         <v>2679</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>2679</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>303</v>
@@ -5336,13 +5336,13 @@
         <v>5374</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H75" s="7">
         <v>3</v>
@@ -5351,13 +5351,13 @@
         <v>3933</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M75" s="7">
         <v>9</v>
@@ -5366,13 +5366,13 @@
         <v>9307</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -5557,13 +5557,13 @@
         <v>929</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -5572,13 +5572,13 @@
         <v>2166</v>
       </c>
       <c r="O79" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q79" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +5593,13 @@
         <v>6671</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="G80" s="7" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -5608,13 +5608,13 @@
         <v>1536</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M80" s="7">
         <v>7</v>
@@ -5623,13 +5623,13 @@
         <v>8207</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5644,13 @@
         <v>11418</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="H81" s="7">
         <v>2</v>
@@ -5659,13 +5659,13 @@
         <v>1709</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M81" s="7">
         <v>13</v>
@@ -5674,13 +5674,13 @@
         <v>13127</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5695,13 @@
         <v>10041</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H82" s="7">
         <v>2</v>
@@ -5716,7 +5716,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M82" s="7">
         <v>10</v>
@@ -5725,13 +5725,13 @@
         <v>11824</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5746,13 @@
         <v>27439</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H83" s="7">
         <v>6</v>
@@ -5761,13 +5761,13 @@
         <v>5877</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>67</v>
+        <v>349</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M83" s="7">
         <v>31</v>
@@ -5776,13 +5776,13 @@
         <v>33317</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5797,13 @@
         <v>135827</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H84" s="7">
         <v>33</v>
@@ -5812,13 +5812,13 @@
         <v>33401</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M84" s="7">
         <v>163</v>
@@ -5827,13 +5827,13 @@
         <v>169228</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>359</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5848,13 @@
         <v>207511</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H85" s="7">
         <v>81</v>
@@ -5863,13 +5863,13 @@
         <v>80647</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M85" s="7">
         <v>278</v>
@@ -5878,13 +5878,13 @@
         <v>288158</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5899,13 @@
         <v>52028</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>368</v>
+        <v>106</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H86" s="7">
         <v>28</v>
@@ -5914,7 +5914,7 @@
         <v>29404</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>372</v>
@@ -5950,13 +5950,13 @@
         <v>470075</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H87" s="7">
         <v>156</v>
@@ -5965,13 +5965,13 @@
         <v>157336</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M87" s="7">
         <v>597</v>
@@ -5980,13 +5980,13 @@
         <v>627411</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P34D2H-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{220AEE76-E001-4BD1-AAB1-42B781D1F536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F06C047-6738-434C-A8C6-67EA818BB30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D49B6040-15F3-4DEF-904A-85A2C19DB7B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44917F0C-21D1-41D3-A95A-2CA4686759FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="378">
-  <si>
-    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2015 (Tasa respuesta: 9,09%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="379">
+  <si>
+    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 9,09%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,55%</t>
+    <t>5,46%</t>
   </si>
   <si>
     <t>0%</t>
@@ -86,7 +86,7 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>3,82%</t>
   </si>
   <si>
     <t>1,5%</t>
@@ -98,1075 +98,1078 @@
     <t>0,8%</t>
   </si>
   <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
   </si>
   <si>
     <t>44,26%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>15,85%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1581,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC41FAB-95D7-479E-92F1-625B0541C9F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E5FD0-FB76-4A9D-B62E-46B713707FF1}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2047,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2065,13 @@
         <v>6601</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2077,13 +2080,13 @@
         <v>1954</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2092,13 +2095,13 @@
         <v>8555</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2116,13 @@
         <v>52594</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -2128,13 +2131,13 @@
         <v>11275</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -2143,13 +2146,13 @@
         <v>63870</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2167,13 @@
         <v>62718</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2179,13 +2182,13 @@
         <v>22096</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -2194,13 +2197,13 @@
         <v>84814</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2218,13 @@
         <v>11825</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2230,13 +2233,13 @@
         <v>3887</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2245,13 +2248,13 @@
         <v>15712</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2269,13 @@
         <v>136297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -2281,13 +2284,13 @@
         <v>40923</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M15" s="7">
         <v>169</v>
@@ -2296,18 +2299,18 @@
         <v>177220</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2325,37 +2328,37 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2373,13 @@
         <v>1022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2391,7 +2394,7 @@
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2406,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,14 +2424,14 @@
         <v>3085</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2451,13 +2454,13 @@
         <v>3085</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,37 +2481,37 @@
         <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,14 +2526,14 @@
         <v>2239</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2553,13 +2556,13 @@
         <v>2239</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2583,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2589,13 +2592,13 @@
         <v>898</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2604,13 +2607,13 @@
         <v>2145</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2628,13 @@
         <v>5273</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2640,13 +2643,13 @@
         <v>884</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2655,10 +2658,10 @@
         <v>6158</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>94</v>
@@ -2694,10 +2697,10 @@
         <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2706,13 +2709,13 @@
         <v>12398</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2730,13 @@
         <v>40038</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2742,13 +2745,13 @@
         <v>9911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -2757,13 +2760,13 @@
         <v>49950</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2781,13 @@
         <v>78096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2793,13 +2796,13 @@
         <v>21443</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>97</v>
@@ -2808,13 +2811,13 @@
         <v>99539</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2832,13 @@
         <v>16371</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2844,13 +2847,13 @@
         <v>6733</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2859,13 +2862,13 @@
         <v>23105</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2883,13 @@
         <v>156776</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H27" s="7">
         <v>44</v>
@@ -2895,13 +2898,13 @@
         <v>42863</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M27" s="7">
         <v>192</v>
@@ -2910,18 +2913,18 @@
         <v>199640</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2939,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2969,7 +2972,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3020,7 +3023,7 @@
         <v>13</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3038,13 @@
         <v>5777</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3050,7 +3053,7 @@
         <v>2049</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
@@ -3140,10 +3143,10 @@
         <v>146</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3152,13 +3155,13 @@
         <v>1536</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3167,13 +3170,13 @@
         <v>4963</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3191,13 @@
         <v>8028</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3218,13 +3221,13 @@
         <v>8028</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3242,13 @@
         <v>3808</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3269,13 +3272,13 @@
         <v>3808</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3293,13 @@
         <v>4572</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3311,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -3320,10 +3323,10 @@
         <v>5501</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>169</v>
@@ -3422,13 +3425,13 @@
         <v>60093</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3446,13 @@
         <v>5895</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -3458,13 +3461,13 @@
         <v>7604</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -3473,13 +3476,13 @@
         <v>13499</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3497,13 @@
         <v>93822</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" s="7">
         <v>42</v>
@@ -3509,13 +3512,13 @@
         <v>41964</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M39" s="7">
         <v>131</v>
@@ -3524,18 +3527,18 @@
         <v>135785</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3553,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3568,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3583,7 +3586,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3607,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3619,7 +3622,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3634,7 +3637,7 @@
         <v>13</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3652,13 @@
         <v>2207</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3670,7 +3673,7 @@
         <v>13</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -3679,7 +3682,7 @@
         <v>2207</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
@@ -3706,7 +3709,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3721,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3736,7 +3739,7 @@
         <v>13</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3823,7 +3826,7 @@
         <v>13</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3874,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3925,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -4093,7 +4096,7 @@
         <v>244</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4111,13 @@
         <v>47620</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H51" s="7">
         <v>18</v>
@@ -4123,13 +4126,13 @@
         <v>18964</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M51" s="7">
         <v>62</v>
@@ -4138,18 +4141,18 @@
         <v>66584</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4167,37 +4170,37 @@
         <v>13</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,37 +4221,37 @@
         <v>13</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="7" t="s">
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,14 +4266,14 @@
         <v>3253</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -4293,13 +4296,13 @@
         <v>3253</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,37 +4323,37 @@
         <v>13</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L55" s="7" t="s">
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,37 +4374,37 @@
         <v>13</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L56" s="7" t="s">
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4419,13 @@
         <v>1138</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4437,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4452,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,37 +4476,37 @@
         <v>13</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="7" t="s">
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4521,13 @@
         <v>1000</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4539,7 +4542,7 @@
         <v>13</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4548,13 +4551,13 @@
         <v>1000</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4572,13 @@
         <v>6583</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4590,7 +4593,7 @@
         <v>13</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M60" s="7">
         <v>6</v>
@@ -4599,13 +4602,13 @@
         <v>6583</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4623,13 @@
         <v>8894</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -4635,13 +4638,13 @@
         <v>3449</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M61" s="7">
         <v>11</v>
@@ -4650,13 +4653,13 @@
         <v>12343</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4674,13 @@
         <v>9318</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H62" s="7">
         <v>4</v>
@@ -4686,13 +4689,13 @@
         <v>5239</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M62" s="7">
         <v>12</v>
@@ -4701,13 +4704,13 @@
         <v>14557</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4725,13 @@
         <v>30187</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H63" s="7">
         <v>7</v>
@@ -4737,13 +4740,13 @@
         <v>8688</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M63" s="7">
         <v>34</v>
@@ -4752,18 +4755,18 @@
         <v>38875</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -4781,7 +4784,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4796,7 +4799,7 @@
         <v>13</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -4811,7 +4814,7 @@
         <v>13</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4835,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4847,7 +4850,7 @@
         <v>13</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -4862,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4898,7 +4901,7 @@
         <v>13</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -4913,7 +4916,7 @@
         <v>13</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,7 +4937,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4949,7 +4952,7 @@
         <v>13</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -4964,7 +4967,7 @@
         <v>13</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,7 +4988,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -5000,7 +5003,7 @@
         <v>13</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -5015,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -5051,7 +5054,7 @@
         <v>13</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -5066,7 +5069,7 @@
         <v>13</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +5090,7 @@
         <v>13</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5102,7 +5105,7 @@
         <v>13</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -5117,7 +5120,7 @@
         <v>13</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5135,13 @@
         <v>813</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5153,7 +5156,7 @@
         <v>13</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -5162,13 +5165,13 @@
         <v>813</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5186,13 @@
         <v>1882</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -5198,13 +5201,13 @@
         <v>1016</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M72" s="7">
         <v>3</v>
@@ -5213,13 +5216,13 @@
         <v>2898</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5237,13 @@
         <v>2679</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5255,7 +5258,7 @@
         <v>13</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -5264,13 +5267,13 @@
         <v>2679</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -5300,13 +5303,13 @@
         <v>2917</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
@@ -5315,13 +5318,13 @@
         <v>2917</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5339,13 @@
         <v>5374</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H75" s="7">
         <v>3</v>
@@ -5351,13 +5354,13 @@
         <v>3933</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M75" s="7">
         <v>9</v>
@@ -5366,13 +5369,13 @@
         <v>9307</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5392,13 @@
         <v>1472</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -5410,7 +5413,7 @@
         <v>13</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -5419,13 +5422,13 @@
         <v>1472</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5443,13 @@
         <v>1022</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -5461,7 +5464,7 @@
         <v>13</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -5470,13 +5473,13 @@
         <v>1022</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5494,13 @@
         <v>15410</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H78" s="7">
         <v>2</v>
@@ -5506,13 +5509,13 @@
         <v>2049</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M78" s="7">
         <v>16</v>
@@ -5521,13 +5524,13 @@
         <v>17459</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>324</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5545,13 @@
         <v>1237</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -5557,13 +5560,13 @@
         <v>929</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -5572,13 +5575,13 @@
         <v>2166</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +5596,13 @@
         <v>6671</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>330</v>
+        <v>69</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -5608,13 +5611,13 @@
         <v>1536</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M80" s="7">
         <v>7</v>
@@ -5623,13 +5626,13 @@
         <v>8207</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>334</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5647,13 @@
         <v>11418</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>68</v>
+        <v>333</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H81" s="7">
         <v>2</v>
@@ -5659,13 +5662,13 @@
         <v>1709</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>338</v>
+        <v>16</v>
       </c>
       <c r="M81" s="7">
         <v>13</v>
@@ -5674,13 +5677,13 @@
         <v>13127</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>18</v>
+        <v>336</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5698,13 @@
         <v>10041</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H82" s="7">
         <v>2</v>
@@ -5716,7 +5719,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M82" s="7">
         <v>10</v>
@@ -5725,13 +5728,13 @@
         <v>11824</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5749,13 @@
         <v>27439</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H83" s="7">
         <v>6</v>
@@ -5761,13 +5764,13 @@
         <v>5877</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M83" s="7">
         <v>31</v>
@@ -5776,13 +5779,13 @@
         <v>33317</v>
       </c>
       <c r="O83" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q83" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P83" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q83" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5800,13 @@
         <v>135827</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H84" s="7">
         <v>33</v>
@@ -5812,13 +5815,13 @@
         <v>33401</v>
       </c>
       <c r="J84" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L84" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M84" s="7">
         <v>163</v>
@@ -5827,13 +5830,13 @@
         <v>169228</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5851,13 @@
         <v>207511</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H85" s="7">
         <v>81</v>
@@ -5863,13 +5866,13 @@
         <v>80647</v>
       </c>
       <c r="J85" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L85" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M85" s="7">
         <v>278</v>
@@ -5878,13 +5881,13 @@
         <v>288158</v>
       </c>
       <c r="O85" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q85" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,7 +5902,7 @@
         <v>52028</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>106</v>
+        <v>369</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>370</v>
@@ -5914,13 +5917,13 @@
         <v>29404</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>150</v>
+        <v>372</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M86" s="7">
         <v>75</v>
@@ -5929,13 +5932,13 @@
         <v>81431</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5953,13 @@
         <v>470075</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H87" s="7">
         <v>156</v>
@@ -5965,13 +5968,13 @@
         <v>157336</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M87" s="7">
         <v>597</v>
@@ -5980,18 +5983,18 @@
         <v>627411</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2H-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F06C047-6738-434C-A8C6-67EA818BB30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC5AC6A-A967-4D3F-AF00-C583081655E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44917F0C-21D1-41D3-A95A-2CA4686759FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{771CFFC2-B23C-44E0-87AA-B957256E21F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="379">
-  <si>
-    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 9,09%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="274">
+  <si>
+    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,1108 +68,793 @@
     <t>16/24</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1584,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E5FD0-FB76-4A9D-B62E-46B713707FF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8512971-5AA2-4F36-825B-29DEFD5FD0F2}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2050,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +1750,13 @@
         <v>6601</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2080,7 +1765,7 @@
         <v>1954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
@@ -2101,7 +1786,7 @@
         <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +1801,13 @@
         <v>52594</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -2131,13 +1816,13 @@
         <v>11275</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -2146,13 +1831,13 @@
         <v>63870</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +1852,13 @@
         <v>62718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2182,13 +1867,13 @@
         <v>22096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -2197,13 +1882,13 @@
         <v>84814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,49 +1897,49 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>11825</v>
+        <v>291754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>361</v>
       </c>
       <c r="I14" s="7">
-        <v>3887</v>
+        <v>353480</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>14</v>
+        <v>634</v>
       </c>
       <c r="N14" s="7">
-        <v>15712</v>
+        <v>645234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,54 +1948,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>127</v>
+        <v>390</v>
       </c>
       <c r="D15" s="7">
-        <v>136297</v>
+        <v>416226</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="I15" s="7">
-        <v>40923</v>
+        <v>390516</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M15" s="7">
-        <v>169</v>
+        <v>789</v>
       </c>
       <c r="N15" s="7">
-        <v>177220</v>
+        <v>806742</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2328,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2343,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2358,7 +2043,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2403,13 +2088,13 @@
         <v>1022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,10 +2109,10 @@
         <v>3085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>74</v>
@@ -2445,7 +2130,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2457,10 +2142,10 @@
         <v>75</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2166,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2496,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2511,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,14 +2211,14 @@
         <v>2239</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
@@ -2547,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2556,13 +2241,13 @@
         <v>2239</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2262,13 @@
         <v>1247</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2592,13 +2277,13 @@
         <v>898</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2607,13 +2292,13 @@
         <v>2145</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2313,13 @@
         <v>5273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2643,13 +2328,13 @@
         <v>884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2658,13 +2343,13 @@
         <v>6158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2364,13 @@
         <v>9404</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2694,13 +2379,13 @@
         <v>2994</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2709,13 +2394,13 @@
         <v>12398</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,28 +2415,28 @@
         <v>40038</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>9911</v>
+        <v>9912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -2760,13 +2445,13 @@
         <v>49950</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2466,13 @@
         <v>78096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2796,13 +2481,13 @@
         <v>21443</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M25" s="7">
         <v>97</v>
@@ -2811,13 +2496,13 @@
         <v>99539</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,49 +2511,49 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>15</v>
+        <v>428</v>
       </c>
       <c r="D26" s="7">
-        <v>16371</v>
+        <v>443760</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>539</v>
       </c>
       <c r="I26" s="7">
-        <v>6733</v>
+        <v>524455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M26" s="7">
-        <v>22</v>
+        <v>967</v>
       </c>
       <c r="N26" s="7">
-        <v>23105</v>
+        <v>968215</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,54 +2562,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>148</v>
+        <v>561</v>
       </c>
       <c r="D27" s="7">
-        <v>156776</v>
+        <v>584165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" s="7">
-        <v>44</v>
+        <v>576</v>
       </c>
       <c r="I27" s="7">
-        <v>42863</v>
+        <v>560585</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M27" s="7">
-        <v>192</v>
+        <v>1137</v>
       </c>
       <c r="N27" s="7">
-        <v>199640</v>
+        <v>1144750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2942,7 +2627,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2957,7 +2642,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2972,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3008,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3023,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +2723,13 @@
         <v>5777</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3053,13 +2738,13 @@
         <v>2049</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -3068,13 +2753,13 @@
         <v>7826</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +2774,13 @@
         <v>1237</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3104,13 +2789,13 @@
         <v>929</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3119,13 +2804,13 @@
         <v>2166</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +2825,13 @@
         <v>3427</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3155,13 +2840,13 @@
         <v>1536</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3170,13 +2855,13 @@
         <v>4963</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +2876,13 @@
         <v>8028</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3212,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -3221,13 +2906,13 @@
         <v>8028</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +2927,13 @@
         <v>3808</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3263,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -3272,13 +2957,13 @@
         <v>3808</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +2978,13 @@
         <v>4572</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3308,13 +2993,13 @@
         <v>929</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -3323,13 +3008,13 @@
         <v>5501</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3029,13 @@
         <v>25117</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3359,13 +3044,13 @@
         <v>4785</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -3374,13 +3059,13 @@
         <v>29902</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3080,13 @@
         <v>35961</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -3410,13 +3095,13 @@
         <v>24132</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -3425,13 +3110,13 @@
         <v>60093</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3125,49 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>6</v>
+        <v>551</v>
       </c>
       <c r="D38" s="7">
-        <v>5895</v>
+        <v>576432</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H38" s="7">
-        <v>8</v>
+        <v>629</v>
       </c>
       <c r="I38" s="7">
-        <v>7604</v>
+        <v>624452</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="M38" s="7">
-        <v>14</v>
+        <v>1180</v>
       </c>
       <c r="N38" s="7">
-        <v>13499</v>
+        <v>1200884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,54 +3176,54 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>89</v>
+        <v>634</v>
       </c>
       <c r="D39" s="7">
-        <v>93822</v>
+        <v>664359</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" s="7">
-        <v>42</v>
+        <v>663</v>
       </c>
       <c r="I39" s="7">
-        <v>41964</v>
+        <v>658812</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M39" s="7">
-        <v>131</v>
+        <v>1297</v>
       </c>
       <c r="N39" s="7">
-        <v>135785</v>
+        <v>1323171</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3556,7 +3241,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3571,7 +3256,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3586,7 +3271,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3292,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3622,7 +3307,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3637,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3337,13 @@
         <v>2207</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3673,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -3682,13 +3367,13 @@
         <v>2207</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,7 +3394,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3724,7 +3409,7 @@
         <v>13</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3739,7 +3424,7 @@
         <v>13</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3439,13 @@
         <v>1004</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3775,7 +3460,7 @@
         <v>13</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3784,13 +3469,13 @@
         <v>1004</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3490,13 @@
         <v>1004</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3826,7 +3511,7 @@
         <v>13</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3835,13 +3520,13 @@
         <v>1004</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3541,13 @@
         <v>961</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3877,7 +3562,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3886,13 +3571,13 @@
         <v>961</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3592,13 @@
         <v>5050</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3928,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -3937,13 +3622,13 @@
         <v>5050</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,28 +3643,28 @@
         <v>9612</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
       </c>
       <c r="I48" s="7">
-        <v>6413</v>
+        <v>6414</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="M48" s="7">
         <v>15</v>
@@ -3988,13 +3673,13 @@
         <v>16025</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +3694,13 @@
         <v>19163</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="H49" s="7">
         <v>9</v>
@@ -4024,13 +3709,13 @@
         <v>9527</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="M49" s="7">
         <v>26</v>
@@ -4039,13 +3724,13 @@
         <v>28690</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,49 +3739,49 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>8</v>
+        <v>544</v>
       </c>
       <c r="D50" s="7">
-        <v>8619</v>
+        <v>604517</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="H50" s="7">
-        <v>3</v>
+        <v>585</v>
       </c>
       <c r="I50" s="7">
-        <v>3024</v>
+        <v>630731</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="M50" s="7">
-        <v>11</v>
+        <v>1129</v>
       </c>
       <c r="N50" s="7">
-        <v>11643</v>
+        <v>1235250</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,54 +3790,54 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>44</v>
+        <v>580</v>
       </c>
       <c r="D51" s="7">
-        <v>47620</v>
+        <v>643518</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H51" s="7">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="I51" s="7">
-        <v>18964</v>
+        <v>646672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M51" s="7">
-        <v>62</v>
+        <v>1180</v>
       </c>
       <c r="N51" s="7">
-        <v>66584</v>
+        <v>1290191</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4170,7 +3855,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4185,7 +3870,7 @@
         <v>13</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4200,7 +3885,7 @@
         <v>13</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,7 +3906,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4236,7 +3921,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4251,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +3951,13 @@
         <v>3253</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4287,7 +3972,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -4296,13 +3981,13 @@
         <v>3253</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>251</v>
+        <v>68</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,7 +4008,7 @@
         <v>13</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4338,7 +4023,7 @@
         <v>13</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4353,7 +4038,7 @@
         <v>13</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4059,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4389,7 +4074,7 @@
         <v>13</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -4404,7 +4089,7 @@
         <v>13</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4104,13 @@
         <v>1138</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4440,7 +4125,7 @@
         <v>13</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4449,13 +4134,13 @@
         <v>1138</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4161,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4491,7 +4176,7 @@
         <v>13</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4506,7 +4191,7 @@
         <v>13</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4206,13 @@
         <v>1000</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4542,7 +4227,7 @@
         <v>13</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4551,13 +4236,13 @@
         <v>1000</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4257,13 @@
         <v>6583</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4593,7 +4278,7 @@
         <v>13</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M60" s="7">
         <v>6</v>
@@ -4602,13 +4287,13 @@
         <v>6583</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4308,13 @@
         <v>8894</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -4638,13 +4323,13 @@
         <v>3449</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="M61" s="7">
         <v>11</v>
@@ -4653,13 +4338,13 @@
         <v>12343</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,49 +4353,49 @@
         <v>0</v>
       </c>
       <c r="C62" s="7">
-        <v>8</v>
+        <v>404</v>
       </c>
       <c r="D62" s="7">
-        <v>9318</v>
+        <v>455954</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H62" s="7">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="I62" s="7">
-        <v>5239</v>
+        <v>492283</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="M62" s="7">
-        <v>12</v>
+        <v>833</v>
       </c>
       <c r="N62" s="7">
-        <v>14557</v>
+        <v>948237</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,54 +4404,54 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>27</v>
+        <v>423</v>
       </c>
       <c r="D63" s="7">
-        <v>30187</v>
+        <v>476823</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H63" s="7">
-        <v>7</v>
+        <v>432</v>
       </c>
       <c r="I63" s="7">
-        <v>8688</v>
+        <v>495732</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M63" s="7">
-        <v>34</v>
+        <v>855</v>
       </c>
       <c r="N63" s="7">
-        <v>38875</v>
+        <v>972555</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -4784,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4799,7 +4484,7 @@
         <v>13</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -4814,7 +4499,7 @@
         <v>13</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,7 +4520,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4850,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -4865,7 +4550,7 @@
         <v>13</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,7 +4571,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4901,7 +4586,7 @@
         <v>13</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -4916,7 +4601,7 @@
         <v>13</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,7 +4622,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4952,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -4967,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,7 +4673,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -5003,7 +4688,7 @@
         <v>13</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -5018,7 +4703,7 @@
         <v>13</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,7 +4724,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -5054,7 +4739,7 @@
         <v>13</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -5069,7 +4754,7 @@
         <v>13</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,7 +4775,7 @@
         <v>13</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5105,7 +4790,7 @@
         <v>13</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -5120,7 +4805,7 @@
         <v>13</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,13 +4820,13 @@
         <v>813</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5156,7 +4841,7 @@
         <v>13</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -5165,13 +4850,13 @@
         <v>813</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +4871,13 @@
         <v>1882</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -5201,13 +4886,13 @@
         <v>1016</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="M72" s="7">
         <v>3</v>
@@ -5216,13 +4901,13 @@
         <v>2898</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +4922,13 @@
         <v>2679</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>297</v>
+        <v>124</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5258,7 +4943,7 @@
         <v>13</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -5267,13 +4952,13 @@
         <v>2679</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>301</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,49 +4967,49 @@
         <v>0</v>
       </c>
       <c r="C74" s="7">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
+        <v>585954</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="H74" s="7">
-        <v>2</v>
+        <v>653</v>
       </c>
       <c r="I74" s="7">
-        <v>2917</v>
+        <v>776006</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="M74" s="7">
-        <v>2</v>
+        <v>1274</v>
       </c>
       <c r="N74" s="7">
-        <v>2917</v>
+        <v>1361960</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,49 +5018,49 @@
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>6</v>
+        <v>627</v>
       </c>
       <c r="D75" s="7">
-        <v>5374</v>
+        <v>591328</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H75" s="7">
-        <v>3</v>
+        <v>654</v>
       </c>
       <c r="I75" s="7">
-        <v>3933</v>
+        <v>777022</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M75" s="7">
-        <v>9</v>
+        <v>1281</v>
       </c>
       <c r="N75" s="7">
-        <v>9307</v>
+        <v>1368350</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5077,13 @@
         <v>1472</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -5413,7 +5098,7 @@
         <v>13</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -5422,13 +5107,13 @@
         <v>1472</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5128,13 @@
         <v>1022</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -5464,7 +5149,7 @@
         <v>13</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -5473,13 +5158,13 @@
         <v>1022</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>313</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5179,13 @@
         <v>15410</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="H78" s="7">
         <v>2</v>
@@ -5509,13 +5194,13 @@
         <v>2049</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="M78" s="7">
         <v>16</v>
@@ -5524,10 +5209,10 @@
         <v>17459</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="Q78" s="7" t="s">
         <v>77</v>
@@ -5545,13 +5230,13 @@
         <v>1237</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>322</v>
+        <v>206</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -5560,13 +5245,13 @@
         <v>929</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -5575,13 +5260,13 @@
         <v>2166</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5281,13 @@
         <v>6671</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -5611,13 +5296,13 @@
         <v>1536</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>329</v>
+        <v>239</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="M80" s="7">
         <v>7</v>
@@ -5626,13 +5311,13 @@
         <v>8207</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>331</v>
+        <v>245</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5332,13 @@
         <v>11418</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>332</v>
+        <v>67</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>334</v>
+        <v>139</v>
       </c>
       <c r="H81" s="7">
         <v>2</v>
@@ -5662,13 +5347,13 @@
         <v>1709</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="M81" s="7">
         <v>13</v>
@@ -5680,10 +5365,10 @@
         <v>83</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>337</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5383,13 @@
         <v>10041</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>338</v>
+        <v>122</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="H82" s="7">
         <v>2</v>
@@ -5713,13 +5398,13 @@
         <v>1783</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>340</v>
+        <v>124</v>
       </c>
       <c r="M82" s="7">
         <v>10</v>
@@ -5728,13 +5413,13 @@
         <v>11824</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5434,13 @@
         <v>27439</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>345</v>
+        <v>131</v>
       </c>
       <c r="H83" s="7">
         <v>6</v>
@@ -5764,13 +5449,13 @@
         <v>5877</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>348</v>
+        <v>247</v>
       </c>
       <c r="M83" s="7">
         <v>31</v>
@@ -5779,13 +5464,13 @@
         <v>33317</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5485,13 @@
         <v>135827</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>354</v>
+        <v>250</v>
       </c>
       <c r="H84" s="7">
         <v>33</v>
@@ -5815,13 +5500,13 @@
         <v>33401</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>355</v>
+        <v>251</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="M84" s="7">
         <v>163</v>
@@ -5830,13 +5515,13 @@
         <v>169228</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>358</v>
+        <v>151</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5536,13 @@
         <v>207511</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="H85" s="7">
         <v>81</v>
@@ -5866,13 +5551,13 @@
         <v>80647</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="M85" s="7">
         <v>278</v>
@@ -5881,13 +5566,13 @@
         <v>288158</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,49 +5581,49 @@
         <v>0</v>
       </c>
       <c r="C86" s="7">
-        <v>47</v>
+        <v>2821</v>
       </c>
       <c r="D86" s="7">
-        <v>52028</v>
+        <v>2958372</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="H86" s="7">
-        <v>28</v>
+        <v>3196</v>
       </c>
       <c r="I86" s="7">
-        <v>29404</v>
+        <v>3401407</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="M86" s="7">
-        <v>75</v>
+        <v>6017</v>
       </c>
       <c r="N86" s="7">
-        <v>81431</v>
+        <v>6359779</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,54 +5632,54 @@
         <v>3</v>
       </c>
       <c r="C87" s="7">
-        <v>441</v>
+        <v>3215</v>
       </c>
       <c r="D87" s="7">
-        <v>470075</v>
+        <v>3376419</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H87" s="7">
-        <v>156</v>
+        <v>3324</v>
       </c>
       <c r="I87" s="7">
-        <v>157336</v>
+        <v>3529339</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M87" s="7">
-        <v>597</v>
+        <v>6539</v>
       </c>
       <c r="N87" s="7">
-        <v>627411</v>
+        <v>6905758</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
